--- a/data1.xlsx
+++ b/data1.xlsx
@@ -14,66 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>sif</t>
-  </si>
-  <si>
-    <t>2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>('mesdour',)</t>
   </si>
   <si>
-    <t>('borj',)</t>
-  </si>
-  <si>
-    <t>('bouira',)</t>
-  </si>
-  <si>
-    <t>('15080',)</t>
-  </si>
-  <si>
-    <t>('Mesdour, Bordj Okhriss, wilaya de Bouira, Algerie.',)</t>
-  </si>
-  <si>
-    <t>('Bordj Oukhriss',)</t>
-  </si>
-  <si>
-    <t>('Bouira',)</t>
-  </si>
-  <si>
-    <t>('10040',)</t>
-  </si>
-  <si>
-    <t>salem</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>('boumerdess',)</t>
-  </si>
-  <si>
-    <t>('88888',)</t>
-  </si>
-  <si>
-    <t>jose</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>(' wilaya de Bouira, Algerie.',)</t>
-  </si>
-  <si>
-    <t>('ariridj',)</t>
-  </si>
-  <si>
-    <t>('alger',)</t>
-  </si>
-  <si>
-    <t>('999',)</t>
+    <t>('sdfgh',)</t>
+  </si>
+  <si>
+    <t>('ugy',)</t>
+  </si>
+  <si>
+    <t>('34567',)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,66 +389,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -14,24 +14,345 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>dell</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>('mesdour',)</t>
-  </si>
-  <si>
-    <t>('sdfgh',)</t>
-  </si>
-  <si>
-    <t>('ugy',)</t>
-  </si>
-  <si>
-    <t>('34567',)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip1</t>
+  </si>
+  <si>
+    <t>zip2</t>
+  </si>
+  <si>
+    <t>date added</t>
+  </si>
+  <si>
+    <t>salem</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>s.salem@niv.com</t>
+  </si>
+  <si>
+    <t>dss</t>
+  </si>
+  <si>
+    <t>sqdq</t>
+  </si>
+  <si>
+    <t>sdq</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2021-10-15 16:19:25.893736+00:00</t>
+  </si>
+  <si>
+    <t>s.salem@univ.com</t>
+  </si>
+  <si>
+    <t>sdsq</t>
+  </si>
+  <si>
+    <t>sdsqd</t>
+  </si>
+  <si>
+    <t>2021-10-15 16:21:11.035754+00:00</t>
+  </si>
+  <si>
+    <t>dqsdssdsd@sjd.com</t>
+  </si>
+  <si>
+    <t>dsqd</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>2021-10-15 16:24:05.634449+00:00</t>
+  </si>
+  <si>
+    <t>dfsd@usz.com</t>
+  </si>
+  <si>
+    <t>DFSF</t>
+  </si>
+  <si>
+    <t>dgfd</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>2021-10-16 11:45:50.449110+00:00</t>
+  </si>
+  <si>
+    <t>s.salem@univ-boumerdes.com</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>dfsfd</t>
+  </si>
+  <si>
+    <t>2021-10-16 11:46:43.209183+00:00</t>
+  </si>
+  <si>
+    <t>dsfghg</t>
+  </si>
+  <si>
+    <t>fdsdf</t>
+  </si>
+  <si>
+    <t>fsd</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>2021-10-16 11:48:08.436051+00:00</t>
+  </si>
+  <si>
+    <t>sdfsqd</t>
+  </si>
+  <si>
+    <t>fqsdf</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>2021-10-16 11:54:36.284665+00:00</t>
+  </si>
+  <si>
+    <t>dcfvgh</t>
+  </si>
+  <si>
+    <t>fcgvhbj</t>
+  </si>
+  <si>
+    <t>erdtf</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>2021-10-16 11:57:41.054370+00:00</t>
+  </si>
+  <si>
+    <t>s.sDalem@niv.com</t>
+  </si>
+  <si>
+    <t>sghjik</t>
+  </si>
+  <si>
+    <t>ftugyi</t>
+  </si>
+  <si>
+    <t>vhbjn</t>
+  </si>
+  <si>
+    <t>345678</t>
+  </si>
+  <si>
+    <t>4567</t>
+  </si>
+  <si>
+    <t>2021-10-16 11:59:02.984356+00:00</t>
+  </si>
+  <si>
+    <t>dsfs</t>
+  </si>
+  <si>
+    <t>dq</t>
+  </si>
+  <si>
+    <t>sdsd</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>2021-10-16 12:03:09.910079+00:00</t>
+  </si>
+  <si>
+    <t>retr</t>
+  </si>
+  <si>
+    <t>retret</t>
+  </si>
+  <si>
+    <t>trer</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:33:44.340449+00:00</t>
+  </si>
+  <si>
+    <t>sqd</t>
+  </si>
+  <si>
+    <t>dsq</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:35:51.055437+00:00</t>
+  </si>
+  <si>
+    <t>fdg</t>
+  </si>
+  <si>
+    <t>gfg</t>
+  </si>
+  <si>
+    <t>dhfghf</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:38:58.472451+00:00</t>
+  </si>
+  <si>
+    <t>dsqs</t>
+  </si>
+  <si>
+    <t>sdqs</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>23432</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:45:35.451070+00:00</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:47:24.349998+00:00</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:47:47.488243+00:00</t>
+  </si>
+  <si>
+    <t>gfh</t>
+  </si>
+  <si>
+    <t>fgh</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:48:53.817560+00:00</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:51:09.768115+00:00</t>
+  </si>
+  <si>
+    <t>dsdf</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>23243</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:53:36.191871+00:00</t>
+  </si>
+  <si>
+    <t>sdqf</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:53:59.717374+00:00</t>
+  </si>
+  <si>
+    <t>sdqfs</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:55:09.639496+00:00</t>
+  </si>
+  <si>
+    <t>xcww</t>
+  </si>
+  <si>
+    <t>xwcwx</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:55:34.242702+00:00</t>
+  </si>
+  <si>
+    <t>dsqsd</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:57:14.049309+00:00</t>
+  </si>
+  <si>
+    <t>dqfsf</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:58:16.006183+00:00</t>
+  </si>
+  <si>
+    <t>xwc</t>
+  </si>
+  <si>
+    <t>xcwv</t>
+  </si>
+  <si>
+    <t>xcw</t>
+  </si>
+  <si>
+    <t>2021-10-16 13:59:28.409069+00:00</t>
   </si>
 </sst>
 </file>
@@ -363,13 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,6 +708,740 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
